--- a/src/Excel/entregable2/ModificarCliente.xlsx
+++ b/src/Excel/entregable2/ModificarCliente.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9845CB69-DE1A-4B4E-B01D-E96D8EECA3BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2994702D-659B-4ABF-A000-ADF9392714CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModificarCliente" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>usuario</t>
   </si>
@@ -33,15 +33,9 @@
     <t>contraseña</t>
   </si>
   <si>
-    <t>codigo del cliente</t>
-  </si>
-  <si>
     <t>SCISNEROSSPAS</t>
   </si>
   <si>
-    <t>1234566</t>
-  </si>
-  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -51,22 +45,38 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>81045556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1045556 14:09:42 </t>
+    <t>75356815</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4905013 16:13:25 </t>
   </si>
   <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>9 mar. 2023, 14:09:45</t>
+    <t>17 abr. 2023, 16:13:30</t>
+  </si>
+  <si>
+    <t>dni</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>19 abr. 2023, 10:43:03</t>
+  </si>
+  <si>
+    <t>19 abr. 2023, 10:44:26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,16 +416,16 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.90625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -426,36 +436,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable2/ModificarCliente.xlsx
+++ b/src/Excel/entregable2/ModificarCliente.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2994702D-659B-4ABF-A000-ADF9392714CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B809D09-36A7-4EA1-84B9-D6118678795B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>usuario</t>
   </si>
@@ -51,32 +51,64 @@
     <t>123456</t>
   </si>
   <si>
-    <t xml:space="preserve">4905013 16:13:25 </t>
-  </si>
-  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>17 abr. 2023, 16:13:30</t>
-  </si>
-  <si>
     <t>dni</t>
   </si>
   <si>
     <t>FAILED</t>
   </si>
   <si>
-    <t>19 abr. 2023, 10:43:03</t>
-  </si>
-  <si>
     <t>19 abr. 2023, 10:44:26</t>
+  </si>
+  <si>
+    <t>Ap Paterno</t>
+  </si>
+  <si>
+    <t>Ap Materno</t>
+  </si>
+  <si>
+    <t>P Nombre</t>
+  </si>
+  <si>
+    <t>Nom Completo</t>
+  </si>
+  <si>
+    <t>E Civil</t>
+  </si>
+  <si>
+    <t>Genero</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>Ronaldo</t>
+  </si>
+  <si>
+    <t>Mareo</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Luis Ronaldo Mareo</t>
+  </si>
+  <si>
+    <t>Soltero</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Direccion 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,22 +445,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.90625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,19 +475,40 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -458,14 +518,35 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable2/ModificarCliente.xlsx
+++ b/src/Excel/entregable2/ModificarCliente.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B809D09-36A7-4EA1-84B9-D6118678795B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5181851C-6FAD-4477-BAE1-86A93F564D43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>usuario</t>
   </si>
@@ -45,70 +45,74 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>75356815</t>
-  </si>
-  <si>
     <t>123456</t>
   </si>
   <si>
-    <t>PASSED</t>
-  </si>
-  <si>
     <t>dni</t>
   </si>
   <si>
+    <t>Ap Paterno</t>
+  </si>
+  <si>
+    <t>Ap Materno</t>
+  </si>
+  <si>
+    <t>P Nombre</t>
+  </si>
+  <si>
+    <t>Nom Completo</t>
+  </si>
+  <si>
+    <t>E Civil</t>
+  </si>
+  <si>
+    <t>Genero</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>11122549</t>
+  </si>
+  <si>
+    <t>Giron</t>
+  </si>
+  <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>Luis Giron Castro</t>
+  </si>
+  <si>
+    <t>Casado</t>
+  </si>
+  <si>
+    <t>Av. Direccion 1</t>
+  </si>
+  <si>
     <t>FAILED</t>
   </si>
   <si>
-    <t>19 abr. 2023, 10:44:26</t>
-  </si>
-  <si>
-    <t>Ap Paterno</t>
-  </si>
-  <si>
-    <t>Ap Materno</t>
-  </si>
-  <si>
-    <t>P Nombre</t>
-  </si>
-  <si>
-    <t>Nom Completo</t>
-  </si>
-  <si>
-    <t>E Civil</t>
-  </si>
-  <si>
-    <t>Genero</t>
-  </si>
-  <si>
-    <t>Direccion</t>
-  </si>
-  <si>
-    <t>Ronaldo</t>
-  </si>
-  <si>
-    <t>Mareo</t>
-  </si>
-  <si>
-    <t>Luis</t>
-  </si>
-  <si>
-    <t>Luis Ronaldo Mareo</t>
-  </si>
-  <si>
-    <t>Soltero</t>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>Direccion 1</t>
+    <t/>
+  </si>
+  <si>
+    <t>26 jun. 2023, 18:19:51</t>
+  </si>
+  <si>
+    <t>26 jun. 2023, 18:21:23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -448,23 +452,23 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.08984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="17.453125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="6.7265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.36328125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.90625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -475,28 +479,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>3</v>
@@ -513,40 +517,40 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
       <c r="M2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable2/ModificarCliente.xlsx
+++ b/src/Excel/entregable2/ModificarCliente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5181851C-6FAD-4477-BAE1-86A93F564D43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB66B85-CA44-42D8-8AA4-01B9448058C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>usuario</t>
   </si>
@@ -102,10 +102,7 @@
     <t/>
   </si>
   <si>
-    <t>26 jun. 2023, 18:19:51</t>
-  </si>
-  <si>
-    <t>26 jun. 2023, 18:21:23</t>
+    <t>2 jul. 2023, 17:18:17</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -550,7 +547,7 @@
         <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable2/ModificarCliente.xlsx
+++ b/src/Excel/entregable2/ModificarCliente.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB66B85-CA44-42D8-8AA4-01B9448058C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6ADA9E-1476-4479-B4FB-BCA093FD1E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -33,83 +33,82 @@
     <t>contraseña</t>
   </si>
   <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Transaccion</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>dni</t>
+  </si>
+  <si>
+    <t>Ap Paterno</t>
+  </si>
+  <si>
+    <t>Ap Materno</t>
+  </si>
+  <si>
+    <t>P Nombre</t>
+  </si>
+  <si>
+    <t>Nom Completo</t>
+  </si>
+  <si>
+    <t>E Civil</t>
+  </si>
+  <si>
+    <t>Genero</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>Casado</t>
+  </si>
+  <si>
+    <t>Av. Direccion 1</t>
+  </si>
+  <si>
+    <t>Laynes</t>
+  </si>
+  <si>
+    <t>Luis Laynes Castro</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>3 jul. 2023, 14:55:25</t>
+  </si>
+  <si>
     <t>SCISNEROSSPAS</t>
   </si>
   <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Transaccion</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>dni</t>
-  </si>
-  <si>
-    <t>Ap Paterno</t>
-  </si>
-  <si>
-    <t>Ap Materno</t>
-  </si>
-  <si>
-    <t>P Nombre</t>
-  </si>
-  <si>
-    <t>Nom Completo</t>
-  </si>
-  <si>
-    <t>E Civil</t>
-  </si>
-  <si>
-    <t>Genero</t>
-  </si>
-  <si>
-    <t>Direccion</t>
-  </si>
-  <si>
-    <t>Luis</t>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>11122549</t>
-  </si>
-  <si>
-    <t>Giron</t>
-  </si>
-  <si>
-    <t>Castro</t>
-  </si>
-  <si>
-    <t>Luis Giron Castro</t>
-  </si>
-  <si>
-    <t>Casado</t>
-  </si>
-  <si>
-    <t>Av. Direccion 1</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2 jul. 2023, 17:18:17</t>
+    <t>72145803</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -449,23 +448,23 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.08984375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="17.453125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="6.7265625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="9.36328125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.90625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="1" max="1" width="16.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="6.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -476,78 +475,78 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="K1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable2/ModificarCliente.xlsx
+++ b/src/Excel/entregable2/ModificarCliente.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6ADA9E-1476-4479-B4FB-BCA093FD1E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A1B270-6FC1-4278-8FE4-C360BDE44804}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -78,9 +78,6 @@
     <t>Castro</t>
   </si>
   <si>
-    <t>Casado</t>
-  </si>
-  <si>
     <t>Av. Direccion 1</t>
   </si>
   <si>
@@ -90,25 +87,29 @@
     <t>Luis Laynes Castro</t>
   </si>
   <si>
+    <t>SCISNEROSSPAS</t>
+  </si>
+  <si>
+    <t>72145803</t>
+  </si>
+  <si>
+    <t>CASADO</t>
+  </si>
+  <si>
     <t>FAILED</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>3 jul. 2023, 14:55:25</t>
-  </si>
-  <si>
-    <t>SCISNEROSSPAS</t>
-  </si>
-  <si>
-    <t>72145803</t>
+    <t>14 jul. 2023, 09:44:27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -448,23 +449,23 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.08984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="17.453125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="6.7265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.36328125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.90625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -510,16 +511,16 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>16</v>
@@ -528,25 +529,25 @@
         <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable2/ModificarCliente.xlsx
+++ b/src/Excel/entregable2/ModificarCliente.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A1B270-6FC1-4278-8FE4-C360BDE44804}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89E3F0B-354A-449D-85CB-833417C5E203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>usuario</t>
   </si>
@@ -103,13 +103,18 @@
   </si>
   <si>
     <t>14 jul. 2023, 09:44:27</t>
+  </si>
+  <si>
+    <t>S Nombre</t>
+  </si>
+  <si>
+    <t>XXXX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,29 +451,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.08984375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="17.453125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="6.7265625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="9.36328125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.90625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="1" max="1" width="16.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.08984375" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="6.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,28 +494,31 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -529,24 +538,27 @@
         <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>25</v>
       </c>
     </row>
